--- a/data/trans_orig/P16A_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,83</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,41</t>
+          <t>2,03; 2,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 3,43</t>
+          <t>3,11; 3,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,98</t>
+          <t>2,7; 2,95</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,14</t>
+          <t>0,7; 1,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,97</t>
+          <t>1,34; 2,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,57</t>
+          <t>1,09; 1,65</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,08</t>
+          <t>0,89; 1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,26</t>
+          <t>1,07; 1,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,15</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,52</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,3</t>
+          <t>0,92; 1,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,07</t>
+          <t>1,71; 2,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,68</t>
+          <t>1,38; 1,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P16A_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Estudios-trans_orig.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 1,89</t>
+          <t>1,67; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,37 +739,37 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,02; 2,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 1,82</t>
+          <t>1,64; 1,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,62</t>
+          <t>2,39; 2,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,42</t>
+          <t>2,17; 2,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 3,4</t>
+          <t>3,09; 3,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 1,59</t>
+          <t>1,45; 1,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,29</t>
+          <t>2,11; 2,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,95</t>
+          <t>2,71; 2,95</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,8</t>
+          <t>0,69; 0,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,1</t>
+          <t>0,67; 1,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,2</t>
+          <t>1,06; 1,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,35</t>
+          <t>1,34; 2,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,65</t>
+          <t>1,1; 1,69</t>
         </is>
       </c>
     </row>
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,63</t>
+          <t>0,47; 0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,92</t>
+          <t>0,56; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,79</t>
+          <t>0,61; 0,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,09</t>
+          <t>0,88; 1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,9</t>
+          <t>0,7; 0,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,1</t>
+          <t>0,87; 1,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,96</t>
+          <t>0,78; 0,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,25</t>
+          <t>1,06; 1,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,73</t>
+          <t>0,6; 0,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,96</t>
+          <t>0,74; 0,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,84</t>
+          <t>0,71; 0,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,76</t>
+          <t>0,68; 0,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,07</t>
+          <t>0,96; 1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 0,96</t>
+          <t>0,87; 0,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,26</t>
+          <t>0,9; 1,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,2</t>
+          <t>1,09; 1,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,31</t>
+          <t>1,71; 2,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,37</t>
+          <t>1,29; 1,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,2</t>
+          <t>1,12; 1,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 1,73</t>
+          <t>1,37; 1,76</t>
         </is>
       </c>
     </row>
